--- a/biology/Zoologie/Penthetria_subterranea/Penthetria_subterranea.xlsx
+++ b/biology/Zoologie/Penthetria_subterranea/Penthetria_subterranea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia subterranea
 Penthetria subterranea est une espèce fossile de mouches de la famille des Bibionidae (les « mouches de Saint-Marc » ou « mouches noires »).
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Penthetria subterranea a été publiée par Nicolas Théobald en 1937 sous le protonyme Plecia subterranea[1]. Cet holotype R 868 avec deux cotypes R 2020 et R 241, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel)[2].
-Reclassement
-Cette espèce a été initialement classée dans le genre Plecia. Elle a été reclassée en 2017 par J. Skartveit et A. Nel[3] dans le genre Penthetria.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Penthetria subterranea a été publiée par Nicolas Théobald en 1937 sous le protonyme Plecia subterranea. Cet holotype R 868 avec deux cotypes R 2020 et R 241, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel).
 </t>
         </is>
       </c>
@@ -542,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[2],[note 2] :
-« Tête manque, thorax noir, abdomen ayant les quatre derniers segments noirâtres, les précédents sont brunâtres, ailes jaunâtres[2]. »
-Dimensions
-La longueur du thorax : 2 mm ; la longueur de l'abdomen : 8 mm ; la longueur des ailes : 10 mm[2].
-Affinités
-P. subterranea ressemble à P. miegi et à  P. luteipennis par l'abdomen grêle et allongé. Mais il s'en distingue aisément par les ailes qui dépassent l'extrémité de l'abdomen.
+          <t>Reclassement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été initialement classée dans le genre Plecia. Elle a été reclassée en 2017 par J. Skartveit et A. Nel dans le genre Penthetria.
 </t>
         </is>
       </c>
@@ -579,12 +591,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 2] :
+« Tête manque, thorax noir, abdomen ayant les quatre derniers segments noirâtres, les précédents sont brunâtres, ailes jaunâtres. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Penthetria_subterranea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_subterranea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du thorax : 2 mm ; la longueur de l'abdomen : 8 mm ; la longueur des ailes : 10 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Penthetria_subterranea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_subterranea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. subterranea ressemble à P. miegi et à  P. luteipennis par l'abdomen grêle et allongé. Mais il s'en distingue aisément par les ailes qui dépassent l'extrémité de l'abdomen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Penthetria_subterranea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_subterranea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Plecia-Penthetria forment le groupe entomologique caractéristique de la station décrite comme proche d'une forêt marécageuse. "Les Bibionidés y vivaient par légions"[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Plecia-Penthetria forment le groupe entomologique caractéristique de la station décrite comme proche d'une forêt marécageuse. "Les Bibionidés y vivaient par légions".
 </t>
         </is>
       </c>
